--- a/data/long_razon/P19_2-Edad-long_razon.xlsx
+++ b/data/long_razon/P19_2-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-29,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-52,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>124,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-56,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-41,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-31,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-59,6; 12,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,14; 80,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,3; 113,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-73,24; -22,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,02; 311,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-74,12; -29,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-58,48; -19,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 112,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-54,74; -1,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-64,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-26,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-48,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-81,31; -40,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 160,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 189,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,88; 14,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,19; 33,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 84,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,47; -26,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 72,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 97,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-26,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-21,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>106,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-23,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-55,36; 26,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 94,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 38,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-46,0; 9,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,89; 194,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 48,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 4,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,6; 110,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 29,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>47,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 52,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 133,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 106,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 32,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,48; 112,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 28,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 28,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,74; 96,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 40,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-17,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-20,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-18,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 27,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 112,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 39,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 18,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 141,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,74; 127,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 6,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 92,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 63,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 34,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 177,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 46,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 61,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 105,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 146,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 30,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 103,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 79,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-27,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-19,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-23,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-40,77; -11,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,76; 61,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 31,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,23; -4,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,86; 79,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 26,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-32,44; -13,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,48; 63,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 21,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P19_2-Edad-long_razon.xlsx
+++ b/data/long_razon/P19_2-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.2845625358153587</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2439162741607062</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3481151874118547</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.9290994049181559</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.274617500923001</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.5076967662786747</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.359683998553007</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.5170612657775732</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.3285583983673787</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.2786704011056924</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.39705598183295</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.5948885715676125</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.2217591767352649</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.5513299429730176</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.2763183782296715</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.5578725435476491</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.258029921674092</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2893938955792706</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1753266127972583</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.3625795919179419</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.7381875121206593</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.390234696577158</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.7025056876875536</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.2158262764698752</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.3432944173656714</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.6012268130812106</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.08445661653592608</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.4616947149789711</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.06369797129671789</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.1903134421028476</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.1814527109887711</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.06033775353918</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.478929075848179</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.341088085887344</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.843858647499556</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.1565008186371811</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>3.793831517673505</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>-0.208413123428445</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.283045516636176</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.625014673942916</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.150257436780448</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.440282957321701</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.1509672340125304</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>1.403365182209</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>1.225702991693354</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.6697483644467047</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.6035852626090328</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2927344119729159</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1574127002671902</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.9928407215343382</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.2876438250900823</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1078490480865799</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.252518367334814</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.1378867301310696</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.6183902131917002</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.5099723899469158</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.233731494735292</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.2713350294858285</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-0.04984199839299371</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0.8005745323030412</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.8163407730849499</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2795831255305604</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2657621892363681</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7385603271383557</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.1281678695542062</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.5530601923690077</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4566791545484981</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.153071444242019</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.3004456273009769</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.100982306938289</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.6629169437860017</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.1696013646980641</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.07199632210793368</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.577143044856411</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0.08306056975665613</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.4097003654445302</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.757551236410809</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.029476866027582</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6480971789667048</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>4.690839205425359</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.1244157524058547</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.3816831901319387</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.8301781789204022</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.087219010901564</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.788656958613979</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.2938753260119598</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.762341138938506</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.9250059120328009</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.5349769074841626</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>2.11562230510851</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.3133261737435064</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1999106497874732</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.08314878489922703</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.6765437287972534</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.7281816815373061</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.2209651685546542</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1.093884313998148</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.08442633093740855</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.01303605901500328</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.1952238452563926</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.2646685317839936</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.5791465746397977</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.0005384306187573263</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.289519313856973</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0.4506848689773787</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.5848926452863694</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2317154901309272</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4077964606545143</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.08764592419983466</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.02128376356233665</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.4424019928246481</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.46000970413613</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.1981310868613473</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.3249757467705101</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2778257613326838</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.4664763878283508</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.2144476280485415</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.2266588861888906</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.03730525165496858</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>0.0295616209064154</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.05846334583941584</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.8675024851688633</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.3571301514464603</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.767142632200999</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.847857491360365</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.09727793724029454</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2.054913134876395</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.4800080377727627</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.4778013956423163</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.8077126424643548</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.02224180445290124</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.113805079930265</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.2958558071414731</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.7081251256932759</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>1.036084130749036</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.1049849369301756</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.530871724557894</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2365115812983505</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2903271275154009</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2922932836974388</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.05122260993234148</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.4849249843096474</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.03229148428793744</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.3730773029536852</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.05196766674332236</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.02108222305172584</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.5062103406623106</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.07785120406998079</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.3298557507620092</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.1660467927769805</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.225933511956409</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.04890933273717235</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1686224669022457</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.3930300835395202</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.3221937176294557</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.3080093512820167</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.03764581401876345</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2687717386250152</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.06936061034912297</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.3403562613286488</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.1966229168583225</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.1106920173600359</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.1365565721766229</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.1428423969671027</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.191053369634815</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.6472600857246671</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.31721270602342</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.8758194669793578</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.123475968906556</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.426388250278393</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.3553445030798365</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.041619016862536</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.306486666471873</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.9755339545270389</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.6804595218914585</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.3145566955951923</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.9532109839571213</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.3724261864767375</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.8151059584154513</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.7355069966805384</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.1643152896986315</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.3678670537637441</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.01604207936754419</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.07440812052636461</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.003164213950027385</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.226358490619343</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.5688001457218075</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.6593091222946544</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.2026707263257259</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.5944214228966802</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.1960723115185793</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.4646717844603288</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.2844916663598028</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>0.1425920965949587</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0.2997362950056635</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.4736782745116939</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.1462926008815307</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.3017984263843657</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.3423536664217575</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.4269291731207029</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.4761565669270936</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.01739844395721692</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>0.1481659188064116</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.229824496190435</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.009443507610989492</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.4123108806177053</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>0.0784275632711393</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>0.00467914007063018</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.1908196560291529</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.09695650445682527</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.3045992405712388</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.216498596778271</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.4343154435182758</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.8605062038080099</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.7397418962636521</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.1286606931502077</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.465064024183217</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1.389367759114857</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>1.078091687637897</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>1.637976212031109</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.07975383285732342</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.9835162191860867</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.633054720840145</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0.627505272910062</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0.8832886729678864</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.2327442666836041</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.5296618129191749</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.1584578426553883</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1.338080533942391</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.8446116213826111</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.1403948649174577</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.3268360675679405</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.304287013931955</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.8036193001994666</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.5508113234824904</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.02874023563209751</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.4112924338695995</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.07922565290114623</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>0.9823446112339386</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>0.6619059969448037</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.5355009991215363</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.1246662609504581</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.4985078000444849</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.009728704222222242</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.3463661121985855</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.2448566131414782</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.1999500793730233</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.1933501130757974</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.02480117880381424</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.3111596573470679</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.2962036423588726</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.0438777372266687</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.265701553103412</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>0.2715664574462227</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>-0.04633695146671543</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.2143682061351424</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.868230335054787</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.3761798402076876</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>4.5327342760708</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>3.346763483191092</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.7522739407622461</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.124451155643595</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>1.151595267861364</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>2.328684978477151</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>2.628461853259791</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.3265839507727005</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.082649420379495</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.5521743639513186</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>2.368929091380047</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>2.100237111709935</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.2909001011329946</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.396470196003653</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.07301362427267148</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3708898844043322</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4892086283935776</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.1839954688848477</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.5301213172509198</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.06143493198875181</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.2849986079651342</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.3585791678152108</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.2368038754722528</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.4607236877907222</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>0.06675587949355392</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0.3258652822392332</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>0.4220426838990861</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.4140463855590057</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1436416657906814</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.124954779697895</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.03899211044592689</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1068617532772649</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.3003374311781027</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.2908074304612452</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.09858650422319941</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.05628615285941304</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0.07718494257854355</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.3297795423025862</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.2720024747150682</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.05852284733398059</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>0.09420041894634718</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>0.2057547337125596</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.1492326846391285</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.749131364075436</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3118595341924563</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7579506988892578</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.9306593763540421</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-0.0320562066780055</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.8368355301449066</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.2269651221162039</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.5569618835394071</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.7059113465536841</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.1339548235238469</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.6789598572375712</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.2176796705286947</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.5608920488048749</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.698844738769358</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
